--- a/Experiments/221227_Mdh/combined_sp_updated.xlsx
+++ b/Experiments/221227_Mdh/combined_sp_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>PlateID</t>
   </si>
@@ -244,45 +244,51 @@
     <t>60</t>
   </si>
   <si>
+    <t>52.8,60.0,</t>
+  </si>
+  <si>
+    <t>54.0,60.0,</t>
+  </si>
+  <si>
+    <t>48.0,</t>
+  </si>
+  <si>
+    <t>30.0,60.0,60.0,60.0,60.0,60.0,</t>
+  </si>
+  <si>
+    <t>55.199999999999996,</t>
+  </si>
+  <si>
+    <t>40.800000000000004,60.0,</t>
+  </si>
+  <si>
+    <t>48.0,60.0,</t>
+  </si>
+  <si>
+    <t>60.0,60.0,60.0,</t>
+  </si>
+  <si>
+    <t>36.0,60.0,</t>
+  </si>
+  <si>
+    <t>58.85,52.0,53.0,</t>
+  </si>
+  <si>
+    <t>60.075,</t>
+  </si>
+  <si>
+    <t>35.25,</t>
+  </si>
+  <si>
+    <t>36.0,</t>
+  </si>
+  <si>
+    <t>46.85,60.0,</t>
+  </si>
+  <si>
     <t>60.0,60.0,</t>
   </si>
   <si>
-    <t>51.0,</t>
-  </si>
-  <si>
-    <t>60.0,60.0,60.0,60.0,60.0,60.0,</t>
-  </si>
-  <si>
-    <t>56.4,</t>
-  </si>
-  <si>
-    <t>45.6,60.0,</t>
-  </si>
-  <si>
-    <t>60.0,60.0,60.0,</t>
-  </si>
-  <si>
-    <t>42.0,60.0,</t>
-  </si>
-  <si>
-    <t>58.85,52.0,53.0,</t>
-  </si>
-  <si>
-    <t>60.075,</t>
-  </si>
-  <si>
-    <t>35.25,</t>
-  </si>
-  <si>
-    <t>42.0,</t>
-  </si>
-  <si>
-    <t>58.85,60.0,</t>
-  </si>
-  <si>
-    <t>48.0,</t>
-  </si>
-  <si>
     <t>57.0,</t>
   </si>
   <si>
@@ -295,7 +301,10 @@
     <t>60.0,</t>
   </si>
   <si>
-    <t>1903.45,2000.0,</t>
+    <t>1763.65,2000.0,</t>
+  </si>
+  <si>
+    <t>52.5,</t>
   </si>
   <si>
     <t>47.5,</t>
@@ -731,7 +740,7 @@
         <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -754,7 +763,7 @@
         <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -777,7 +786,7 @@
         <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -800,7 +809,7 @@
         <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -823,7 +832,7 @@
         <v>56.4</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -846,7 +855,7 @@
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -869,7 +878,7 @@
         <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -892,7 +901,7 @@
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -915,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -938,7 +947,7 @@
         <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -961,7 +970,7 @@
         <v>61.225</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -984,7 +993,7 @@
         <v>35.25</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1007,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1030,7 +1039,7 @@
         <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1053,7 +1062,7 @@
         <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1076,7 +1085,7 @@
         <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1099,7 +1108,7 @@
         <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1122,7 +1131,7 @@
         <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1145,7 +1154,7 @@
         <v>19.7999999999999</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1168,7 +1177,7 @@
         <v>48.45</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1191,7 +1200,7 @@
         <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1214,7 +1223,7 @@
         <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1234,7 +1243,7 @@
         <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1257,7 +1266,7 @@
         <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1280,7 +1289,7 @@
         <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1303,7 +1312,7 @@
         <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1326,7 +1335,7 @@
         <v>75</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1349,7 +1358,7 @@
         <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments/221227_Mdh/combined_sp_updated.xlsx
+++ b/Experiments/221227_Mdh/combined_sp_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
   <si>
     <t>PlateID</t>
   </si>
@@ -244,51 +244,51 @@
     <t>60</t>
   </si>
   <si>
-    <t>52.8,60.0,</t>
-  </si>
-  <si>
-    <t>54.0,60.0,</t>
+    <t>58.2,60.0,</t>
+  </si>
+  <si>
+    <t>58.5,60.0,</t>
+  </si>
+  <si>
+    <t>50.25,</t>
+  </si>
+  <si>
+    <t>52.5,60.0,60.0,60.0,60.0,60.0,</t>
+  </si>
+  <si>
+    <t>56.1,</t>
+  </si>
+  <si>
+    <t>44.4,60.0,</t>
+  </si>
+  <si>
+    <t>57.0,60.0,</t>
+  </si>
+  <si>
+    <t>60.0,60.0,60.0,</t>
+  </si>
+  <si>
+    <t>40.5,60.0,</t>
+  </si>
+  <si>
+    <t>60.0,52.0,53.0,</t>
+  </si>
+  <si>
+    <t>61.225,</t>
+  </si>
+  <si>
+    <t>35.25,</t>
+  </si>
+  <si>
+    <t>40.5,</t>
+  </si>
+  <si>
+    <t>60.0,60.0,</t>
   </si>
   <si>
     <t>48.0,</t>
   </si>
   <si>
-    <t>30.0,60.0,60.0,60.0,60.0,60.0,</t>
-  </si>
-  <si>
-    <t>55.199999999999996,</t>
-  </si>
-  <si>
-    <t>40.800000000000004,60.0,</t>
-  </si>
-  <si>
-    <t>48.0,60.0,</t>
-  </si>
-  <si>
-    <t>60.0,60.0,60.0,</t>
-  </si>
-  <si>
-    <t>36.0,60.0,</t>
-  </si>
-  <si>
-    <t>58.85,52.0,53.0,</t>
-  </si>
-  <si>
-    <t>60.075,</t>
-  </si>
-  <si>
-    <t>35.25,</t>
-  </si>
-  <si>
-    <t>36.0,</t>
-  </si>
-  <si>
-    <t>46.85,60.0,</t>
-  </si>
-  <si>
-    <t>60.0,60.0,</t>
-  </si>
-  <si>
     <t>57.0,</t>
   </si>
   <si>
@@ -301,13 +301,10 @@
     <t>60.0,</t>
   </si>
   <si>
-    <t>1763.65,2000.0,</t>
+    <t>1965.05,2000.0,</t>
   </si>
   <si>
     <t>52.5,</t>
-  </si>
-  <si>
-    <t>47.5,</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1059,7 @@
         <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1085,7 +1082,7 @@
         <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1108,7 +1105,7 @@
         <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1266,7 +1263,7 @@
         <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1312,7 +1309,7 @@
         <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1335,7 +1332,7 @@
         <v>75</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1358,7 +1355,7 @@
         <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments/221227_Mdh/combined_sp_updated.xlsx
+++ b/Experiments/221227_Mdh/combined_sp_updated.xlsx
@@ -244,31 +244,31 @@
     <t>60</t>
   </si>
   <si>
-    <t>58.2,60.0,</t>
-  </si>
-  <si>
-    <t>58.5,60.0,</t>
-  </si>
-  <si>
-    <t>50.25,</t>
-  </si>
-  <si>
-    <t>52.5,60.0,60.0,60.0,60.0,60.0,</t>
-  </si>
-  <si>
-    <t>56.1,</t>
-  </si>
-  <si>
-    <t>44.4,60.0,</t>
+    <t>56.4,60.0,</t>
   </si>
   <si>
     <t>57.0,60.0,</t>
   </si>
   <si>
+    <t>49.5,</t>
+  </si>
+  <si>
+    <t>45.0,60.0,60.0,60.0,60.0,60.0,</t>
+  </si>
+  <si>
+    <t>55.8,</t>
+  </si>
+  <si>
+    <t>43.2,60.0,</t>
+  </si>
+  <si>
+    <t>54.0,60.0,</t>
+  </si>
+  <si>
     <t>60.0,60.0,60.0,</t>
   </si>
   <si>
-    <t>40.5,60.0,</t>
+    <t>39.0,60.0,</t>
   </si>
   <si>
     <t>60.0,52.0,53.0,</t>
@@ -280,7 +280,7 @@
     <t>35.25,</t>
   </si>
   <si>
-    <t>40.5,</t>
+    <t>39.0,</t>
   </si>
   <si>
     <t>60.0,60.0,</t>
@@ -301,7 +301,7 @@
     <t>60.0,</t>
   </si>
   <si>
-    <t>1965.05,2000.0,</t>
+    <t>1930.1,2000.0,</t>
   </si>
   <si>
     <t>52.5,</t>
@@ -1309,7 +1309,7 @@
         <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:8">
